--- a/CodeSystem-pmipairing-type-code-system.xlsx
+++ b/CodeSystem-pmipairing-type-code-system.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T03:43:36+00:00</t>
+    <t>2022-03-30T01:18:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,6 +87,9 @@
     <t>Case Sensitive</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Value Set (all codes)</t>
   </si>
   <si>
@@ -135,16 +138,25 @@
     <t>Awardee</t>
   </si>
   <si>
+    <t>Awardee Entity for participants</t>
+  </si>
+  <si>
     <t>organization</t>
   </si>
   <si>
     <t>Organization</t>
   </si>
   <si>
+    <t>Organization Entity for participants</t>
+  </si>
+  <si>
     <t>site</t>
   </si>
   <si>
     <t>Site</t>
+  </si>
+  <si>
+    <t>Site Entity for participants</t>
   </si>
 </sst>
 </file>
@@ -406,52 +418,54 @@
       <c r="A16" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -469,53 +483,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/CodeSystem-pmipairing-type-code-system.xlsx
+++ b/CodeSystem-pmipairing-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T01:18:45+00:00</t>
+    <t>2022-03-30T15:49:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pmipairing-type-code-system.xlsx
+++ b/CodeSystem-pmipairing-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:49:01+00:00</t>
+    <t>2022-03-30T16:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
